--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3063482.62923022</v>
+        <v>3060984.377909011</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673417</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7717861.389069073</v>
+        <v>7717861.389069074</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>311.7236160152335</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>168.3039002982671</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1433,10 +1433,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247585</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>251.830194666221</v>
+        <v>275.9723987444507</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247902</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673176</v>
+        <v>270.5718355797511</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011846</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>14.78497770203991</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W17" t="n">
-        <v>223.6760563457488</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580147</v>
+        <v>85.42919609580136</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249201</v>
+        <v>72.8440370124919</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207653</v>
+        <v>54.21268893207642</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043335</v>
+        <v>52.03117856043323</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679542</v>
+        <v>51.01826393679531</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728924</v>
+        <v>71.62302417289229</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818496</v>
+        <v>50.35223082818484</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702286</v>
+        <v>1.949636323702173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530607</v>
+        <v>95.36624124530596</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376922</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504552</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H20" t="n">
-        <v>154.2578743136168</v>
+        <v>154.2578743136184</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204</v>
+        <v>14.78497770203988</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727661</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839991</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312772</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580144</v>
+        <v>85.42919609580133</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249198</v>
+        <v>72.84403701249187</v>
       </c>
       <c r="D22" t="n">
-        <v>54.2126889320765</v>
+        <v>54.21268893207639</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043332</v>
+        <v>52.0311785604332</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679539</v>
+        <v>51.01826393679528</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289237</v>
+        <v>71.62302417289226</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818493</v>
+        <v>50.35223082818482</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702258</v>
+        <v>1.949636323702144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530593</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U22" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
-        <v>214.3331515469784</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011846</v>
+        <v>154.2578743136186</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204</v>
+        <v>14.78497770203988</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727661</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839991</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312772</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580144</v>
+        <v>85.42919609580133</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249198</v>
+        <v>72.84403701249187</v>
       </c>
       <c r="D25" t="n">
-        <v>54.2126889320765</v>
+        <v>54.21268893207639</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043332</v>
+        <v>52.0311785604332</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679539</v>
+        <v>51.01826393679528</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289237</v>
+        <v>71.62302417289226</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818493</v>
+        <v>50.35223082818482</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702258</v>
+        <v>1.949636323702144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530593</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U25" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531395</v>
       </c>
       <c r="E26" t="n">
-        <v>326.2677453162266</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741681</v>
+        <v>359.448398274168</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859102</v>
+        <v>363.49407818591</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063258</v>
+        <v>61.76011432063244</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498696</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109257</v>
+        <v>322.3034532109256</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>217.697583656362</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310844</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506691</v>
+        <v>101.1878255506689</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902589</v>
+        <v>99.00631517902576</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538796</v>
+        <v>97.99340055538784</v>
       </c>
       <c r="G28" t="n">
-        <v>118.5981607914849</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H28" t="n">
-        <v>97.3273674467775</v>
+        <v>97.32736744677737</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229483</v>
+        <v>48.9247729422947</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250405</v>
+        <v>41.50450520250394</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T28" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380694</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214937</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531395</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047185</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741681</v>
+        <v>359.448398274168</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>241.5778990625432</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.76011432063244</v>
       </c>
       <c r="T29" t="n">
-        <v>117.2794825583628</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913587</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498696</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.3034532109256</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885103</v>
+        <v>338.8102911885102</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310844</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506691</v>
+        <v>101.1878255506689</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902589</v>
+        <v>99.00631517902576</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538796</v>
+        <v>97.99340055538784</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914849</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H31" t="n">
-        <v>97.3273674467775</v>
+        <v>97.32736744677737</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229483</v>
+        <v>48.9247729422947</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250405</v>
+        <v>41.50450520250394</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380694</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214937</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D32" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U32" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V32" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W32" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X32" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H34" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W34" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253479</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279504</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353763</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925769</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353773</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441566</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.134122574823</v>
+        <v>1627.383644777218</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.621238582484</v>
+        <v>1305.87076078488</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>995.0546951262029</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2934.232731721416</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.619477325919</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2345.300455003878</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2019.284329690871</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.284329690871</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052936</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.97969982546</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611976</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268777</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770408</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998331</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1640.517726580262</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580262</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827673</v>
+        <v>857.6738109135081</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549131</v>
+        <v>542.044253685654</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616629</v>
+        <v>268.7393692616627</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3214.984421555146</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.810292390736</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
-        <v>2821.103752608919</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158667</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.05893145934</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045282</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5637,7 +5637,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095339</v>
+        <v>424.1192475095331</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433803</v>
+        <v>350.5394121433796</v>
       </c>
       <c r="D19" t="n">
-        <v>295.779120292798</v>
+        <v>295.7791202927974</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721578</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360009</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724736</v>
+        <v>119.3422852724733</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208472</v>
+        <v>68.48144605208461</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148973</v>
+        <v>129.635488186007</v>
       </c>
       <c r="K19" t="n">
-        <v>321.4050986989545</v>
+        <v>321.4050986989519</v>
       </c>
       <c r="L19" t="n">
-        <v>570.5736988665861</v>
+        <v>570.5736988665836</v>
       </c>
       <c r="M19" t="n">
-        <v>738.0061801657839</v>
+        <v>738.0061801657814</v>
       </c>
       <c r="N19" t="n">
-        <v>1002.773773440906</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O19" t="n">
-        <v>1234.15087890437</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P19" t="n">
-        <v>1426.560637902403</v>
+        <v>1426.560637902401</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.940161506218</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712683</v>
+        <v>962.541622171267</v>
       </c>
       <c r="W19" t="n">
-        <v>768.480799696061</v>
+        <v>768.4807996960599</v>
       </c>
       <c r="X19" t="n">
-        <v>635.847596359797</v>
+        <v>635.8475963597959</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780202</v>
+        <v>510.4113647780193</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373653</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C20" t="n">
-        <v>1411.015066994995</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.105715949998</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E20" t="n">
-        <v>857.6738109135067</v>
+        <v>857.6738109135083</v>
       </c>
       <c r="F20" t="n">
-        <v>542.0442536856526</v>
+        <v>542.0442536856542</v>
       </c>
       <c r="G20" t="n">
-        <v>222.3281510924024</v>
+        <v>222.328151092404</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,22 +5780,22 @@
         <v>3310.671500698019</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V20" t="n">
         <v>2806.169431697767</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X20" t="n">
         <v>2270.64771329008</v>
       </c>
       <c r="Y20" t="n">
-        <v>1975.864728876021</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095337</v>
+        <v>424.119247509533</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433802</v>
+        <v>350.5394121433795</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927973</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721581</v>
+        <v>243.2223742721577</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360008</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724733</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208469</v>
+        <v>68.48144605208458</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278422</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L22" t="n">
-        <v>570.5736988665855</v>
+        <v>612.7318368954742</v>
       </c>
       <c r="M22" t="n">
-        <v>831.4649364110577</v>
+        <v>873.6230744399465</v>
       </c>
       <c r="N22" t="n">
-        <v>1002.773773440905</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O22" t="n">
-        <v>1234.150878904369</v>
+        <v>1327.609635149642</v>
       </c>
       <c r="P22" t="n">
-        <v>1426.560637902403</v>
+        <v>1520.019394147675</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.940161506218</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815401</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712679</v>
+        <v>962.5416221712667</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960607</v>
+        <v>768.4807996960595</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597967</v>
+        <v>635.8475963597957</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780192</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.621236373652</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1411.015066994994</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827671</v>
+        <v>857.6738109135083</v>
       </c>
       <c r="F23" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856542</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924042</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698018</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T23" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479583</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V23" t="n">
-        <v>2806.169431697766</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989405</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X23" t="n">
-        <v>2270.647713290079</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.86472887602</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095337</v>
+        <v>424.119247509533</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433802</v>
+        <v>350.5394121433795</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927978</v>
+        <v>295.7791202927973</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721581</v>
+        <v>243.2223742721577</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360011</v>
+        <v>191.6887743360008</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724733</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208466</v>
+        <v>68.48144605208458</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148973</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278421</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954737</v>
+        <v>612.7318368954742</v>
       </c>
       <c r="M25" t="n">
-        <v>873.623074439946</v>
+        <v>873.6230744399465</v>
       </c>
       <c r="N25" t="n">
-        <v>1044.931911469793</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.566804006297</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1431.97656300433</v>
+        <v>1431.976563004328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815401</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712679</v>
+        <v>962.5416221712667</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960607</v>
+        <v>768.4807996960595</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597967</v>
+        <v>635.8475963597957</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.41136477802</v>
+        <v>510.4113647780192</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2007.412093354089</v>
+        <v>1766.0533664538</v>
       </c>
       <c r="C26" t="n">
-        <v>1686.356291027357</v>
+        <v>1444.997564127068</v>
       </c>
       <c r="D26" t="n">
-        <v>1375.997307034286</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>1046.433927926987</v>
+        <v>796.7570421494339</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510594</v>
+        <v>433.6778519735067</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,40 +6236,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749945</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T26" t="n">
-        <v>3263.221867749945</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U26" t="n">
-        <v>3263.221867749945</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V26" t="n">
-        <v>2980.065695020055</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W26" t="n">
-        <v>2675.203754363621</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X26" t="n">
-        <v>2349.644710716221</v>
+        <v>1985.949915601641</v>
       </c>
       <c r="Y26" t="n">
-        <v>2007.412093354089</v>
+        <v>1766.0533664538</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460468</v>
+        <v>756.2666781460459</v>
       </c>
       <c r="C28" t="n">
-        <v>635.23720983182</v>
+        <v>635.2372098318192</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331644</v>
+        <v>533.0272850331637</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644514</v>
+        <v>433.0209060644509</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802207</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686201</v>
+        <v>214.2415511686199</v>
       </c>
       <c r="H28" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719868</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>409.528673813731</v>
+        <v>398.6314812403297</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506816937</v>
       </c>
       <c r="M28" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274111</v>
       </c>
       <c r="N28" t="n">
-        <v>1552.514007546244</v>
+        <v>1541.616814972843</v>
       </c>
       <c r="O28" t="n">
-        <v>1898.796977459525</v>
+        <v>1887.899784886125</v>
       </c>
       <c r="P28" t="n">
-        <v>2178.357848886053</v>
+        <v>2167.460656312652</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458034</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829243</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269749</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452956</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.265358192279</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176792</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626064</v>
+        <v>890.0084283626054</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015.730252231353</v>
+        <v>1305.024172789068</v>
       </c>
       <c r="C29" t="n">
-        <v>1694.674449904621</v>
+        <v>983.968370462336</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911551</v>
+        <v>673.6093864692657</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692657</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510594</v>
+        <v>310.5301962933383</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6473,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T29" t="n">
-        <v>3207.141697812844</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U29" t="n">
-        <v>3001.51793570036</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V29" t="n">
-        <v>3001.51793570036</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
-        <v>2696.655995043926</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X29" t="n">
-        <v>2696.655995043926</v>
+        <v>1985.949915601641</v>
       </c>
       <c r="Y29" t="n">
-        <v>2354.423377681794</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6552,40 +6552,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460468</v>
+        <v>756.2666781460459</v>
       </c>
       <c r="C31" t="n">
-        <v>635.23720983182</v>
+        <v>635.2372098318192</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331644</v>
+        <v>533.0272850331637</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644514</v>
+        <v>433.0209060644509</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802207</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.2415511686199</v>
       </c>
       <c r="H31" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719868</v>
+        <v>147.6909272985854</v>
       </c>
       <c r="K31" t="n">
-        <v>409.528673813731</v>
+        <v>398.6314812403297</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506816937</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274111</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546244</v>
+        <v>1541.616814972843</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459525</v>
+        <v>1887.899784886125</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312654</v>
+        <v>2167.460656312652</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458034</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829243</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269749</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452956</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.265358192279</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176792</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626064</v>
+        <v>890.0084283626054</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C32" t="n">
         <v>1440.850850103805</v>
@@ -6686,61 +6686,61 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y32" t="n">
         <v>1999.070337960652</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D34" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>67.83109325226769</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J34" t="n">
-        <v>79.65384678970712</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K34" t="n">
-        <v>274.6725740832015</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L34" t="n">
-        <v>505.9475671746746</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M34" t="n">
-        <v>770.0879214996964</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.104631555368</v>
+        <v>962.5394823862514</v>
       </c>
       <c r="O34" t="n">
-        <v>1272.730853799382</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.68185655214</v>
+        <v>1392.824580408847</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,19 +6920,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
@@ -6947,19 +6947,19 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
         <v>3313.986587710109</v>
@@ -6968,13 +6968,13 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7005,13 +7005,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226771</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155312</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090256</v>
+        <v>253.529850226496</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402004982</v>
+        <v>409.2396941488532</v>
       </c>
       <c r="M37" t="n">
-        <v>866.79579452552</v>
+        <v>673.3800484738749</v>
       </c>
       <c r="N37" t="n">
-        <v>1134.812504581192</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799382</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1468.389729577964</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070897</v>
@@ -7160,10 +7160,10 @@
         <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,10 +7172,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,19 +7202,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960651</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7263,40 +7263,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226772</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155312</v>
+        <v>155.2189959588258</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523173</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402004986</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996963</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295438</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773557</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.68185655214</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7415,10 +7415,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7500,40 +7500,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226772</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970715</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832015</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055587</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>694.5227723305804</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120211</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656035</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434617</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818982</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954469</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889412</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371225</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M46" t="n">
-        <v>789.9116685363202</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437845</v>
+        <v>950.0618004120234</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.395895681859</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434617</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304653</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673483</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431744</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734878</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9091,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094454</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -9100,7 +9100,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140396</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899445</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.33569315209643</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706526</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.9992980883861</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.2581575873708</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>23.2316174384357</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>35.7161350420423</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66.46756048619402</v>
+        <v>42.32535640796425</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756638</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204002</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>31.16212828552841</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>45.94710598756782</v>
+        <v>45.94710598756615</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.94710598756868</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.234977288491876</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,10 +24494,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720769</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321482</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,22 +24728,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063257</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>39.2108401137141</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.279421427279885e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644766.7943544039</v>
+        <v>644766.7943544037</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674342.1136878304</v>
+        <v>674342.1136878306</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674342.1136878305</v>
+        <v>674342.1136878306</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674342.1136878305</v>
+        <v>674342.1136878306</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645030.9235185977</v>
+        <v>645030.923518598</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645030.9235185978</v>
+        <v>645030.923518598</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>757830.6133132603</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="D2" t="n">
         <v>757833.8957333416</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481044</v>
+        <v>707191.1841481045</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481037</v>
+        <v>707191.1841481039</v>
       </c>
       <c r="G2" t="n">
-        <v>756080.5517105979</v>
+        <v>756080.5517105984</v>
       </c>
       <c r="H2" t="n">
-        <v>756080.5517105985</v>
+        <v>756080.5517105984</v>
       </c>
       <c r="I2" t="n">
         <v>756080.5517105983</v>
       </c>
       <c r="J2" t="n">
-        <v>707657.6413814204</v>
+        <v>707657.6413814207</v>
       </c>
       <c r="K2" t="n">
-        <v>707657.6413814207</v>
+        <v>707657.6413814209</v>
       </c>
       <c r="L2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="M2" t="n">
+        <v>759463.637124463</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244629</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>759463.6371244628</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>759463.6371244632</v>
-      </c>
-      <c r="O2" t="n">
-        <v>759463.6371244631</v>
-      </c>
-      <c r="P2" t="n">
-        <v>759463.6371244625</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971248456</v>
+        <v>9496.994971251896</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265978</v>
+        <v>1152439.021265974</v>
       </c>
       <c r="F3" t="n">
         <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403407</v>
+        <v>37942.11797403453</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248404</v>
+        <v>78147.77618248394</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586379</v>
+        <v>463750.8212586364</v>
       </c>
       <c r="E4" t="n">
-        <v>61875.22120367241</v>
+        <v>61875.22120367242</v>
       </c>
       <c r="F4" t="n">
-        <v>61875.22120367234</v>
+        <v>61875.22120367239</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662286</v>
+        <v>91701.70120662288</v>
       </c>
       <c r="H4" t="n">
         <v>91701.70120662288</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662289</v>
+        <v>91701.70120662295</v>
       </c>
       <c r="J4" t="n">
-        <v>62159.64863317455</v>
+        <v>62159.64863317464</v>
       </c>
       <c r="K4" t="n">
-        <v>62159.64863317453</v>
+        <v>62159.64863317465</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657708</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.137826577</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657711</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657711</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328348</v>
+        <v>33869.34580328356</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673063</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256587.053381529</v>
+        <v>256582.6398036609</v>
       </c>
       <c r="C6" t="n">
-        <v>256587.053381529</v>
+        <v>256582.6398036613</v>
       </c>
       <c r="D6" t="n">
-        <v>250716.7337001718</v>
+        <v>250712.3289937072</v>
       </c>
       <c r="E6" t="n">
-        <v>-585378.5516433278</v>
+        <v>-585519.82854326</v>
       </c>
       <c r="F6" t="n">
-        <v>567060.4696226493</v>
+        <v>566919.1927227133</v>
       </c>
       <c r="G6" t="n">
-        <v>544194.0443132104</v>
+        <v>544184.9008391188</v>
       </c>
       <c r="H6" t="n">
-        <v>582136.162287245</v>
+        <v>582127.0188131533</v>
       </c>
       <c r="I6" t="n">
-        <v>582136.1622872448</v>
+        <v>582127.018813153</v>
       </c>
       <c r="J6" t="n">
-        <v>567204.4572919037</v>
+        <v>567064.441087193</v>
       </c>
       <c r="K6" t="n">
-        <v>567204.457291904</v>
+        <v>567064.4410871932</v>
       </c>
       <c r="L6" t="n">
-        <v>505023.125809152</v>
+        <v>505023.1258091517</v>
       </c>
       <c r="M6" t="n">
-        <v>375982.3336995629</v>
+        <v>375982.3336995632</v>
       </c>
       <c r="N6" t="n">
+        <v>583170.901991636</v>
+      </c>
+      <c r="O6" t="n">
+        <v>583170.9019916358</v>
+      </c>
+      <c r="P6" t="n">
         <v>583170.9019916363</v>
-      </c>
-      <c r="O6" t="n">
-        <v>583170.9019916361</v>
-      </c>
-      <c r="P6" t="n">
-        <v>583170.9019916356</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135219</v>
+        <v>11.08925703135621</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,19 +26808,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754325</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135219</v>
+        <v>11.08925703135621</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561946</v>
+        <v>1078.687443561942</v>
       </c>
       <c r="F3" t="n">
         <v>4.547473508864641e-13</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754325</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305518</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052754</v>
+        <v>208.7572219052748</v>
       </c>
       <c r="J8" t="n">
-        <v>177.262238882607</v>
+        <v>177.2622388826056</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586414</v>
+        <v>214.4191170586393</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193335</v>
+        <v>228.731368019331</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862419</v>
+        <v>222.5183879862391</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556358</v>
+        <v>221.4585556357971</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176013</v>
+        <v>222.5869951175986</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178636</v>
+        <v>224.8223464178612</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592001</v>
+        <v>217.4915592000983</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267123</v>
+        <v>212.7851939267113</v>
       </c>
       <c r="S8" t="n">
-        <v>208.004204482318</v>
+        <v>208.0042044823176</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588571</v>
+        <v>98.70114728588541</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297577</v>
+        <v>124.5841013297568</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373468</v>
+        <v>133.9898052373454</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993356</v>
+        <v>133.3753828993337</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399314</v>
+        <v>136.0903888399292</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993507</v>
+        <v>125.1381096993485</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352014</v>
+        <v>136.9211602351994</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121509</v>
+        <v>129.4196520121492</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214887</v>
+        <v>136.9370407214876</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721166</v>
+        <v>144.1985650721161</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007454</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
-        <v>154.849109972181</v>
+        <v>154.8491099721808</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634481</v>
+        <v>125.5816320634476</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269177</v>
+        <v>126.6899679269168</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502426</v>
+        <v>131.9116646502416</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297099</v>
+        <v>135.7911600297087</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978766</v>
+        <v>124.6254548978755</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465401</v>
+        <v>135.6300504465391</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697196</v>
+        <v>135.3094552697187</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177117</v>
+        <v>149.8305238177111</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021356</v>
+        <v>176.3942526021353</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.609379296496627e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.627142864890629e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613582</v>
+        <v>51.81880627917587</v>
       </c>
       <c r="K19" t="n">
-        <v>51.81880627917863</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613594</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="L22" t="n">
-        <v>51.81880627917783</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613585</v>
+        <v>51.81880627917525</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613585</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="O25" t="n">
-        <v>57.28943769526643</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613585</v>
+        <v>57.28943769526393</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="R25" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613585</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29308,7 +29308,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29542,10 +29542,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.4276474675434</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29779,13 +29779,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>76.32843350415754</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810508</v>
+        <v>76.32843350416067</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810508</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810508</v>
+        <v>77.66073332242701</v>
       </c>
       <c r="L37" t="n">
-        <v>76.32843350415695</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810508</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810508</v>
+        <v>77.66073332242723</v>
       </c>
       <c r="K40" t="n">
-        <v>76.32843350415743</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810508</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>85.08100106221531</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810508</v>
+        <v>77.66073332242732</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>86.41330088048221</v>
+        <v>85.08100106221809</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776422989</v>
+        <v>0.04457992776424603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154194</v>
+        <v>0.4565541852155848</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130474</v>
+        <v>1.718667665131097</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079309</v>
+        <v>3.78366564408068</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339162</v>
+        <v>5.670733986341215</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950653713</v>
+        <v>7.035046950656262</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241030836</v>
+        <v>7.827845241033671</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960790955</v>
+        <v>7.954507960793836</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085393</v>
+        <v>7.511216304088114</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337405967</v>
+        <v>6.410649337408289</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349483</v>
+        <v>4.814130674351227</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419808</v>
+        <v>2.800343887420822</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927389</v>
+        <v>1.015865103927757</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879164</v>
+        <v>0.1951486337879871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00356639422113839</v>
+        <v>0.003566394221139682</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064434</v>
+        <v>0.02385236418065298</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224814861</v>
+        <v>0.2303636224815696</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141142898</v>
+        <v>0.8212327141145872</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909034</v>
+        <v>2.25352533690985</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012205</v>
+        <v>3.8516337370136</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880538588</v>
+        <v>5.178996880540463</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082086944</v>
+        <v>6.043645082089133</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383982582</v>
+        <v>6.203602383984829</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243041</v>
+        <v>5.675084209245097</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179357</v>
+        <v>4.554755402181006</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532776</v>
+        <v>3.044733364533879</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847374</v>
+        <v>1.480938891847911</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922312</v>
+        <v>0.4430472030923916</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614917605</v>
+        <v>0.09614176614921087</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568707</v>
+        <v>0.001569234485569275</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087620887</v>
+        <v>0.01999702087621611</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993844</v>
+        <v>0.1777916946994488</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550772633</v>
+        <v>0.601364955077481</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375947967</v>
+        <v>1.413789375948479</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617721</v>
+        <v>2.323290243618562</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995635</v>
+        <v>2.973011630996712</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895177</v>
+        <v>3.134623917896312</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356583</v>
+        <v>3.060089567357691</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302688</v>
+        <v>2.826488005303711</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428024</v>
+        <v>2.4185487794289</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734181</v>
+        <v>1.674477811734787</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750339004</v>
+        <v>0.899138775034226</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426581</v>
+        <v>0.3484935365427843</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647107424</v>
+        <v>0.08544181647110519</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247758</v>
+        <v>0.001090746593248153</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34390,7 +34390,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806949</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637016</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764787</v>
+        <v>63.76098156951873</v>
       </c>
       <c r="K19" t="n">
-        <v>151.1226994788456</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>267.442013409214</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428931</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
-        <v>194.3532919172051</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>5.47063141608848</v>
+        <v>5.470631416088594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764787</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L22" t="n">
-        <v>209.1014769078215</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M22" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428931</v>
+        <v>191.1302701359325</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172051</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.454064246278</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088509</v>
+        <v>5.470631416088622</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36373,7 +36373,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764787</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M25" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6009015520237</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172051</v>
+        <v>157.2399455263332</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060948</v>
+        <v>93.0060640806096</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>242.4680417862049</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>395.0610268610271</v>
+        <v>395.0610268610272</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O28" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126537</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q28" t="n">
-        <v>114.8146207797819</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060948</v>
+        <v>81.99879885495152</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118628</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
-        <v>395.0610268610271</v>
+        <v>395.0610268610272</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>271.3774533869986</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37148,7 +37148,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332299818266968</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>233.6111041328012</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882472</v>
+        <v>89.37971366430284</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057734</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266982</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.626895518448</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277721</v>
+        <v>176.9646265220941</v>
       </c>
       <c r="L37" t="n">
-        <v>233.6111041328006</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511834</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057748</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37695,16 +37695,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266968</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>89.60290861277009</v>
       </c>
       <c r="K40" t="n">
-        <v>175.6323267038244</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840381</v>
@@ -37713,16 +37713,16 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057734</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266968</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>258.1202303852936</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591744</v>
+        <v>177.6112411534966</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>259.4525302035605</v>
+        <v>258.1202303852963</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
